--- a/database/seeders/data/pre_registered_users.xlsx
+++ b/database/seeders/data/pre_registered_users.xlsx
@@ -6,17 +6,17 @@
     <sheet state="visible" name="Team Memebers" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_759ED1B0_7C86_4730_B6A2_7F45FCE1FDA2_.wvu.FilterData">'Team Memebers'!$A$1:$C$253</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B993001F_BE06_415A_BFAF_20A81CD6CB9E_.wvu.FilterData">'Team Memebers'!$A$1:$C$253</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{759ED1B0-7C86-4730-B6A2-7F45FCE1FDA2}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B993001F-BE06-415A-BFAF-20A81CD6CB9E}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="279">
   <si>
     <t>Email</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Your Position</t>
   </si>
   <si>
+    <t>Layer</t>
+  </si>
+  <si>
     <t>ameenabdoh2@gmail.con</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
   </si>
   <si>
     <t>Junior</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>haninostalgia@gmail.com</t>
@@ -900,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -908,19 +914,20 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -930,6 +937,13 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1169,3629 +1183,4141 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" ht="21.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" ht="18.0" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" ht="24.0" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" ht="24.0" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" ht="26.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" ht="27.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>42</v>
+      <c r="A30" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" ht="30.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" ht="24.0" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" ht="35.25" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" ht="30.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" ht="21.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="66" ht="20.25" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" ht="27.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" ht="21.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="84" ht="23.25" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="99" ht="23.25" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="109" ht="35.25" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="112" ht="28.5" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="113" ht="22.5" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="114" ht="30.0" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D117" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D118" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D120" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="123" ht="27.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="124" ht="18.0" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D124" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="126" ht="27.75" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="133" ht="31.5" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="134" ht="27.75" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="149" ht="30.0" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D159" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D161" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D178" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D185" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="186" ht="33.0" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D187" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="188" ht="35.25" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D188" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D190" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="196" ht="25.5" customHeight="1">
       <c r="A196" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D196" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="199" ht="36.75" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D199" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="200" ht="27.75" customHeight="1">
       <c r="A200" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C206" s="12"/>
-      <c r="D206" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="207" ht="25.5" customHeight="1">
       <c r="A207" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D209" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D211" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="212" ht="34.5" customHeight="1">
       <c r="A212" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D212" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D213" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="214" ht="27.0" customHeight="1">
       <c r="A214" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D214" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D215" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D216" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D217" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D219" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="220" ht="30.0" customHeight="1">
       <c r="A220" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D225" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D226" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D227" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="228" ht="24.75" customHeight="1">
       <c r="A228" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D228" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D232" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D234" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D240" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D242" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D243" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D244" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D245" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D246" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D247" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D248" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D249" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D250" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D251" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D252" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D253" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="6"/>
+      <c r="A254" s="12"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="12"/>
     </row>
     <row r="255">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="6"/>
+      <c r="A255" s="12"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="12"/>
     </row>
     <row r="256">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="6"/>
+      <c r="A256" s="12"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="12"/>
     </row>
     <row r="257">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="6"/>
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="12"/>
     </row>
     <row r="258">
-      <c r="A258" s="6"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="6"/>
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="12"/>
     </row>
     <row r="259">
-      <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="6"/>
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="12"/>
     </row>
     <row r="260">
-      <c r="A260" s="6"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="6"/>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="12"/>
     </row>
     <row r="261">
-      <c r="A261" s="6"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="6"/>
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="12"/>
     </row>
     <row r="262">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="6"/>
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="12"/>
     </row>
     <row r="263">
-      <c r="A263" s="6"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="6"/>
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="12"/>
     </row>
     <row r="264">
-      <c r="A264" s="6"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="6"/>
+      <c r="A264" s="12"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="12"/>
     </row>
     <row r="265">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="6"/>
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="12"/>
     </row>
     <row r="266">
-      <c r="A266" s="6"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="6"/>
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="12"/>
     </row>
     <row r="267">
-      <c r="A267" s="6"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="6"/>
+      <c r="A267" s="12"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="12"/>
     </row>
     <row r="268">
-      <c r="A268" s="6"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="6"/>
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="12"/>
     </row>
     <row r="269">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="6"/>
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="12"/>
     </row>
     <row r="270">
-      <c r="A270" s="6"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="6"/>
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="12"/>
     </row>
     <row r="271">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="6"/>
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="12"/>
     </row>
     <row r="272">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="6"/>
+      <c r="A272" s="12"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="12"/>
     </row>
     <row r="273">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="6"/>
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="12"/>
     </row>
     <row r="274">
-      <c r="A274" s="6"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="6"/>
+      <c r="A274" s="12"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="12"/>
     </row>
     <row r="275">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="6"/>
+      <c r="A275" s="12"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="12"/>
     </row>
     <row r="276">
-      <c r="A276" s="6"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="6"/>
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="12"/>
     </row>
     <row r="277">
-      <c r="A277" s="6"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="6"/>
+      <c r="A277" s="12"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="12"/>
     </row>
     <row r="278">
-      <c r="A278" s="6"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="6"/>
+      <c r="A278" s="12"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="12"/>
     </row>
     <row r="279">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="6"/>
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="12"/>
     </row>
     <row r="280">
-      <c r="A280" s="6"/>
-      <c r="B280" s="6"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="6"/>
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="12"/>
     </row>
     <row r="281">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="6"/>
+      <c r="A281" s="12"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="12"/>
     </row>
     <row r="282">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="6"/>
+      <c r="A282" s="12"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="12"/>
     </row>
     <row r="283">
-      <c r="A283" s="6"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="6"/>
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="12"/>
     </row>
     <row r="284">
-      <c r="A284" s="6"/>
-      <c r="B284" s="6"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="6"/>
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="12"/>
     </row>
     <row r="285">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="6"/>
+      <c r="A285" s="12"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="12"/>
     </row>
     <row r="286">
-      <c r="A286" s="6"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="6"/>
+      <c r="A286" s="12"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="12"/>
     </row>
     <row r="287">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="6"/>
+      <c r="A287" s="12"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="12"/>
     </row>
     <row r="288">
-      <c r="A288" s="6"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="6"/>
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="12"/>
     </row>
     <row r="289">
-      <c r="A289" s="6"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="6"/>
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="12"/>
     </row>
     <row r="290">
-      <c r="A290" s="6"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="6"/>
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="12"/>
     </row>
     <row r="291">
-      <c r="A291" s="6"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="6"/>
+      <c r="A291" s="12"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="12"/>
     </row>
     <row r="292">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="6"/>
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="12"/>
     </row>
     <row r="293">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="6"/>
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="12"/>
     </row>
     <row r="294">
-      <c r="A294" s="6"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="6"/>
+      <c r="A294" s="12"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="12"/>
     </row>
     <row r="295">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="6"/>
+      <c r="A295" s="12"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="12"/>
     </row>
     <row r="296">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="6"/>
+      <c r="A296" s="12"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="12"/>
     </row>
     <row r="297">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="6"/>
+      <c r="A297" s="12"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="12"/>
     </row>
     <row r="298">
-      <c r="A298" s="6"/>
-      <c r="B298" s="6"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="6"/>
+      <c r="A298" s="12"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="12"/>
     </row>
     <row r="299">
-      <c r="A299" s="6"/>
-      <c r="B299" s="6"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="6"/>
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="12"/>
     </row>
     <row r="300">
-      <c r="A300" s="6"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="8"/>
-      <c r="D300" s="6"/>
+      <c r="A300" s="12"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="12"/>
     </row>
     <row r="301">
-      <c r="A301" s="6"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="6"/>
+      <c r="A301" s="12"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="12"/>
     </row>
     <row r="302">
-      <c r="A302" s="6"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="6"/>
+      <c r="A302" s="12"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="12"/>
     </row>
     <row r="303">
-      <c r="A303" s="6"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="6"/>
+      <c r="A303" s="12"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="12"/>
     </row>
     <row r="304">
-      <c r="A304" s="6"/>
-      <c r="B304" s="6"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="6"/>
+      <c r="A304" s="12"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="12"/>
     </row>
     <row r="305">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="6"/>
+      <c r="A305" s="12"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="12"/>
     </row>
     <row r="306">
-      <c r="A306" s="6"/>
-      <c r="B306" s="6"/>
-      <c r="C306" s="8"/>
-      <c r="D306" s="6"/>
+      <c r="A306" s="12"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="12"/>
     </row>
     <row r="307">
-      <c r="A307" s="6"/>
-      <c r="B307" s="6"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="6"/>
+      <c r="A307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="12"/>
     </row>
     <row r="308">
-      <c r="A308" s="6"/>
-      <c r="B308" s="6"/>
-      <c r="C308" s="8"/>
-      <c r="D308" s="6"/>
+      <c r="A308" s="12"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="12"/>
     </row>
     <row r="309">
-      <c r="A309" s="6"/>
-      <c r="B309" s="6"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="6"/>
+      <c r="A309" s="12"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="12"/>
     </row>
     <row r="310">
-      <c r="A310" s="6"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="6"/>
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="12"/>
     </row>
     <row r="311">
-      <c r="A311" s="6"/>
-      <c r="B311" s="6"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="6"/>
+      <c r="A311" s="12"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="12"/>
     </row>
     <row r="312">
-      <c r="A312" s="6"/>
-      <c r="B312" s="6"/>
-      <c r="C312" s="8"/>
-      <c r="D312" s="6"/>
+      <c r="A312" s="12"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="12"/>
     </row>
     <row r="313">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="8"/>
-      <c r="D313" s="6"/>
+      <c r="A313" s="12"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="12"/>
     </row>
     <row r="314">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="8"/>
-      <c r="D314" s="6"/>
+      <c r="A314" s="12"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="12"/>
     </row>
     <row r="315">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="8"/>
-      <c r="D315" s="6"/>
+      <c r="A315" s="12"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="12"/>
     </row>
     <row r="316">
-      <c r="A316" s="6"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="8"/>
-      <c r="D316" s="6"/>
+      <c r="A316" s="12"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="12"/>
     </row>
     <row r="317">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="8"/>
-      <c r="D317" s="6"/>
+      <c r="A317" s="12"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="12"/>
     </row>
     <row r="318">
-      <c r="A318" s="6"/>
-      <c r="B318" s="6"/>
-      <c r="C318" s="8"/>
-      <c r="D318" s="6"/>
+      <c r="A318" s="12"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="12"/>
     </row>
     <row r="319">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6"/>
-      <c r="C319" s="8"/>
-      <c r="D319" s="6"/>
+      <c r="A319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="12"/>
     </row>
     <row r="320">
-      <c r="A320" s="6"/>
-      <c r="B320" s="6"/>
-      <c r="C320" s="8"/>
-      <c r="D320" s="6"/>
+      <c r="A320" s="12"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="12"/>
     </row>
     <row r="321">
-      <c r="A321" s="6"/>
-      <c r="B321" s="6"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="6"/>
+      <c r="A321" s="12"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="12"/>
     </row>
     <row r="322">
-      <c r="A322" s="6"/>
-      <c r="B322" s="6"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="6"/>
+      <c r="A322" s="12"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="12"/>
     </row>
     <row r="323">
-      <c r="A323" s="6"/>
-      <c r="B323" s="6"/>
-      <c r="C323" s="8"/>
-      <c r="D323" s="6"/>
+      <c r="A323" s="12"/>
+      <c r="B323" s="12"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="12"/>
     </row>
     <row r="324">
-      <c r="A324" s="6"/>
-      <c r="B324" s="6"/>
-      <c r="C324" s="8"/>
-      <c r="D324" s="6"/>
+      <c r="A324" s="12"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="12"/>
     </row>
     <row r="325">
-      <c r="A325" s="6"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="6"/>
+      <c r="A325" s="12"/>
+      <c r="B325" s="12"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="12"/>
     </row>
     <row r="326">
-      <c r="A326" s="6"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="8"/>
-      <c r="D326" s="6"/>
+      <c r="A326" s="12"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="12"/>
     </row>
     <row r="327">
-      <c r="A327" s="6"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="8"/>
-      <c r="D327" s="6"/>
+      <c r="A327" s="12"/>
+      <c r="B327" s="12"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="12"/>
     </row>
     <row r="328">
-      <c r="A328" s="6"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="8"/>
-      <c r="D328" s="6"/>
+      <c r="A328" s="12"/>
+      <c r="B328" s="12"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="12"/>
     </row>
     <row r="329">
-      <c r="A329" s="6"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="8"/>
-      <c r="D329" s="6"/>
+      <c r="A329" s="12"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="12"/>
     </row>
     <row r="330">
-      <c r="A330" s="6"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="8"/>
-      <c r="D330" s="6"/>
+      <c r="A330" s="12"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="12"/>
     </row>
     <row r="331">
-      <c r="A331" s="6"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="8"/>
-      <c r="D331" s="6"/>
+      <c r="A331" s="12"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="12"/>
     </row>
     <row r="332">
-      <c r="A332" s="6"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="8"/>
-      <c r="D332" s="6"/>
+      <c r="A332" s="12"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="12"/>
     </row>
     <row r="333">
-      <c r="A333" s="6"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="8"/>
-      <c r="D333" s="6"/>
+      <c r="A333" s="12"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="12"/>
     </row>
     <row r="334">
-      <c r="A334" s="6"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="8"/>
-      <c r="D334" s="6"/>
+      <c r="A334" s="12"/>
+      <c r="B334" s="12"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="12"/>
     </row>
     <row r="335">
-      <c r="A335" s="6"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="8"/>
-      <c r="D335" s="6"/>
+      <c r="A335" s="12"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="12"/>
     </row>
     <row r="336">
-      <c r="A336" s="6"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="8"/>
-      <c r="D336" s="6"/>
+      <c r="A336" s="12"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="12"/>
     </row>
     <row r="337">
-      <c r="A337" s="6"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="8"/>
-      <c r="D337" s="6"/>
+      <c r="A337" s="12"/>
+      <c r="B337" s="12"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="12"/>
     </row>
     <row r="338">
-      <c r="A338" s="6"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="8"/>
-      <c r="D338" s="6"/>
+      <c r="A338" s="12"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="12"/>
     </row>
     <row r="339">
-      <c r="A339" s="6"/>
-      <c r="B339" s="6"/>
-      <c r="C339" s="8"/>
-      <c r="D339" s="6"/>
+      <c r="A339" s="12"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="12"/>
     </row>
     <row r="340">
-      <c r="A340" s="6"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="8"/>
-      <c r="D340" s="6"/>
+      <c r="A340" s="12"/>
+      <c r="B340" s="12"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="12"/>
     </row>
     <row r="341">
-      <c r="A341" s="6"/>
-      <c r="B341" s="6"/>
-      <c r="C341" s="8"/>
-      <c r="D341" s="6"/>
+      <c r="A341" s="12"/>
+      <c r="B341" s="12"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="12"/>
     </row>
     <row r="342">
-      <c r="A342" s="6"/>
-      <c r="B342" s="6"/>
-      <c r="C342" s="8"/>
-      <c r="D342" s="6"/>
+      <c r="A342" s="12"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="12"/>
     </row>
     <row r="343">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="8"/>
-      <c r="D343" s="6"/>
+      <c r="A343" s="12"/>
+      <c r="B343" s="12"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="12"/>
     </row>
     <row r="344">
-      <c r="A344" s="6"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="8"/>
-      <c r="D344" s="6"/>
+      <c r="A344" s="12"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="12"/>
     </row>
     <row r="345">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
-      <c r="C345" s="8"/>
-      <c r="D345" s="6"/>
+      <c r="A345" s="12"/>
+      <c r="B345" s="12"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="12"/>
     </row>
     <row r="346">
-      <c r="A346" s="6"/>
-      <c r="B346" s="6"/>
-      <c r="C346" s="8"/>
-      <c r="D346" s="6"/>
+      <c r="A346" s="12"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="12"/>
     </row>
     <row r="347">
-      <c r="A347" s="6"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="8"/>
-      <c r="D347" s="6"/>
+      <c r="A347" s="12"/>
+      <c r="B347" s="12"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="12"/>
     </row>
     <row r="348">
-      <c r="A348" s="6"/>
-      <c r="B348" s="6"/>
-      <c r="C348" s="8"/>
-      <c r="D348" s="6"/>
+      <c r="A348" s="12"/>
+      <c r="B348" s="12"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="12"/>
     </row>
     <row r="349">
-      <c r="A349" s="6"/>
-      <c r="B349" s="6"/>
-      <c r="C349" s="8"/>
-      <c r="D349" s="6"/>
+      <c r="A349" s="12"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="12"/>
     </row>
     <row r="350">
-      <c r="A350" s="6"/>
-      <c r="B350" s="6"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="6"/>
+      <c r="A350" s="12"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="12"/>
     </row>
     <row r="351">
-      <c r="A351" s="6"/>
-      <c r="B351" s="6"/>
-      <c r="C351" s="8"/>
-      <c r="D351" s="6"/>
+      <c r="A351" s="12"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="12"/>
     </row>
     <row r="352">
-      <c r="A352" s="6"/>
-      <c r="B352" s="6"/>
-      <c r="C352" s="8"/>
-      <c r="D352" s="6"/>
+      <c r="A352" s="12"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="12"/>
     </row>
     <row r="353">
-      <c r="A353" s="6"/>
-      <c r="B353" s="6"/>
-      <c r="C353" s="8"/>
-      <c r="D353" s="6"/>
+      <c r="A353" s="12"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="12"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{759ED1B0-7C86-4730-B6A2-7F45FCE1FDA2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B993001F-BE06-415A-BFAF-20A81CD6CB9E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$C$253">
         <filterColumn colId="1">
           <filters>
